--- a/scalpel/typeinfer/evaluation/evaluation_outputs/soimort__you-get.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/soimort__you-get.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F504"/>
+  <dimension ref="A1:F505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,9 +995,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -1699,9 +1699,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F39" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -3843,9 +3843,9 @@
           <t>{'any', 'int'}</t>
         </is>
       </c>
-      <c r="F106" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F106" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>{'Atom', 'empty'}</t>
+          <t>{'empty', 'Atom'}</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
@@ -4064,12 +4064,12 @@
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Atom</t>
-        </is>
-      </c>
-      <c r="F113" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>{'Udta', 'empty'}</t>
+          <t>{'empty', 'Udta'}</t>
         </is>
       </c>
       <c r="F114" s="5" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Udta</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="F115" s="5" t="inlineStr">
@@ -4227,9 +4227,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F118" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F118" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>{'Atom', 'empty'}</t>
+          <t>{'empty', 'Atom'}</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
@@ -4640,12 +4640,12 @@
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Atom</t>
-        </is>
-      </c>
-      <c r="F131" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>{'Atom', 'empty'}</t>
+          <t>{'empty', 'Atom'}</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Atom</t>
-        </is>
-      </c>
-      <c r="F135" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>{'Atom', 'empty'}</t>
+          <t>{'empty', 'Atom'}</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
@@ -5280,12 +5280,12 @@
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Atom</t>
-        </is>
-      </c>
-      <c r="F151" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F151" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>{'Atom', 'empty'}</t>
+          <t>{'empty', 'Atom'}</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Atom</t>
-        </is>
-      </c>
-      <c r="F153" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F153" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>{'Atom', 'empty'}</t>
+          <t>{'empty', 'Atom'}</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5408,12 +5408,12 @@
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Atom</t>
-        </is>
-      </c>
-      <c r="F155" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F155" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>{'CompositeAtom', 'empty'}</t>
+          <t>{'empty', 'CompositeAtom'}</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5472,12 +5472,12 @@
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>CompositeAtom</t>
-        </is>
-      </c>
-      <c r="F157" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="F157" s="4" t="inlineStr">
+        <is>
+          <t>Loss</t>
         </is>
       </c>
     </row>
@@ -6019,9 +6019,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F174" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F174" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -6147,9 +6147,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F178" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F178" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -15011,9 +15011,9 @@
           <t>{'any', 'empty'}</t>
         </is>
       </c>
-      <c r="F455" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+      <c r="F455" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="E477" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Tuple[None]'}</t>
+          <t>{'Tuple[None]', 'any'}</t>
         </is>
       </c>
       <c r="F477" s="4" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="E478" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>Tuple[None]</t>
         </is>
       </c>
       <c r="F478" s="4" t="inlineStr">
@@ -15776,7 +15776,7 @@
       </c>
       <c r="E479" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'str'}</t>
+          <t>{'str', 'empty'}</t>
         </is>
       </c>
       <c r="F479" s="3" t="inlineStr">
@@ -15808,12 +15808,12 @@
       </c>
       <c r="E480" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F480" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F480" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16536,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E503" s="2" t="inlineStr">
         <is>
@@ -16544,21 +16544,35 @@
         </is>
       </c>
       <c r="F503" s="2" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="inlineStr"/>
       <c r="B504" s="2" t="inlineStr"/>
-      <c r="C504" s="2" t="inlineStr"/>
-      <c r="D504" s="2" t="inlineStr"/>
-      <c r="E504" s="2" t="inlineStr">
+      <c r="C504" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D504" s="2" t="n">
+        <v>2078.26</v>
+      </c>
+      <c r="E504" s="2" t="inlineStr"/>
+      <c r="F504" s="2" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="inlineStr"/>
+      <c r="B505" s="2" t="inlineStr"/>
+      <c r="C505" s="2" t="inlineStr"/>
+      <c r="D505" s="2" t="inlineStr"/>
+      <c r="E505" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F504" s="2" t="n">
-        <v>641.1800000000001</v>
+      <c r="F505" s="2" t="n">
+        <v>504.35</v>
       </c>
     </row>
   </sheetData>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/soimort__you-get.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/soimort__you-get.xlsx
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'int'}</t>
+          <t>{'int', 'any'}</t>
         </is>
       </c>
       <c r="F106" s="5" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>any</t>
-        </is>
-      </c>
-      <c r="F107" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>Win</t>
         </is>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Atom'}</t>
+          <t>{'Atom', 'empty'}</t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
@@ -4064,12 +4064,12 @@
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Udta'}</t>
+          <t>{'Udta', 'empty'}</t>
         </is>
       </c>
       <c r="F114" s="5" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Udta</t>
         </is>
       </c>
       <c r="F115" s="5" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Tuple[any]'}</t>
+          <t>{'Tuple[any]', 'empty'}</t>
         </is>
       </c>
       <c r="F116" s="3" t="inlineStr">
@@ -4192,12 +4192,12 @@
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Tuple[any]</t>
+        </is>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'VariableAtom'}</t>
+          <t>{'VariableAtom', 'empty'}</t>
         </is>
       </c>
       <c r="F122" s="3" t="inlineStr">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>VariableAtom</t>
+        </is>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'VariableAtom'}</t>
+          <t>{'VariableAtom', 'empty'}</t>
         </is>
       </c>
       <c r="F124" s="3" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>VariableAtom</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'VariableAtom'}</t>
+          <t>{'VariableAtom', 'empty'}</t>
         </is>
       </c>
       <c r="F126" s="3" t="inlineStr">
@@ -4512,12 +4512,12 @@
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>VariableAtom</t>
+        </is>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Atom'}</t>
+          <t>{'Atom', 'empty'}</t>
         </is>
       </c>
       <c r="F130" s="3" t="inlineStr">
@@ -4640,12 +4640,12 @@
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Atom'}</t>
+          <t>{'Atom', 'empty'}</t>
         </is>
       </c>
       <c r="F134" s="3" t="inlineStr">
@@ -4768,12 +4768,12 @@
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Atom'}</t>
+          <t>{'Atom', 'empty'}</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
@@ -5280,12 +5280,12 @@
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Atom'}</t>
+          <t>{'Atom', 'empty'}</t>
         </is>
       </c>
       <c r="F152" s="3" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'Atom'}</t>
+          <t>{'Atom', 'empty'}</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
@@ -5408,12 +5408,12 @@
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>Atom</t>
+        </is>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>{'empty', 'CompositeAtom'}</t>
+          <t>{'CompositeAtom', 'empty'}</t>
         </is>
       </c>
       <c r="F156" s="3" t="inlineStr">
@@ -5472,12 +5472,12 @@
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
-        <is>
-          <t>Loss</t>
+          <t>CompositeAtom</t>
+        </is>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>Neutral</t>
         </is>
       </c>
     </row>
@@ -15712,7 +15712,7 @@
       </c>
       <c r="E477" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'any'}</t>
+          <t>{'any', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F477" s="4" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="E478" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>any</t>
         </is>
       </c>
       <c r="F478" s="4" t="inlineStr">
@@ -16536,7 +16536,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E503" s="2" t="inlineStr">
         <is>
@@ -16544,22 +16544,22 @@
         </is>
       </c>
       <c r="F503" s="2" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="inlineStr"/>
       <c r="B504" s="2" t="inlineStr"/>
-      <c r="C504" s="2" t="inlineStr">
+      <c r="C504" s="2" t="inlineStr"/>
+      <c r="D504" s="2" t="inlineStr"/>
+      <c r="E504" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D504" s="2" t="n">
-        <v>2078.26</v>
-      </c>
-      <c r="E504" s="2" t="inlineStr"/>
-      <c r="F504" s="2" t="inlineStr"/>
+      <c r="F504" s="2" t="n">
+        <v>97.59999999999999</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="inlineStr"/>
@@ -16568,11 +16568,11 @@
       <c r="D505" s="2" t="inlineStr"/>
       <c r="E505" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F505" s="2" t="n">
-        <v>504.35</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
